--- a/test_case/unit-test-case_v4.xlsx
+++ b/test_case/unit-test-case_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80B92B86-278F-45E9-829A-4DB98E9166D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C76482-A21A-4556-A5AF-30A3C0B5A7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="17" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="227">
   <si>
     <t>ver</t>
   </si>
@@ -102,6 +102,9 @@
     <t>「メールアドレス」右側に入力フォームが表示されている</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>「パスワード」右側に入力フォームが表示されている</t>
   </si>
   <si>
@@ -132,9 +135,6 @@
   <si>
     <t>1.「パスワード」の入力フォームには入力しない
 2.確認ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>他の項目でエラーがなければ、更新確認画面へ遷移する</t>
   </si>
   <si>
     <t>1.「パスワード」の入力フォームへ「11文字」入力する</t>
@@ -184,6 +184,20 @@
     <t>ログイン時のエラーがなければTOPページへ遷移する。</t>
   </si>
   <si>
+    <t>入力情報の保持</t>
+  </si>
+  <si>
+    <t>入力したメールアドレスが保持されるか</t>
+  </si>
+  <si>
+    <t>1.「メールアドレス」の入力フォームへ「a@a.com」を入力する
+2.「パスワード」の入力フォームへ「a」を入力する
+2.【ログイン】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力フォームへ「a@a.com」が入力されている状態になっている</t>
+  </si>
+  <si>
     <t>テキストが表示されているか</t>
   </si>
   <si>
@@ -191,9 +205,6 @@
   </si>
   <si>
     <t>「エラー画面」のテキストが赤字で表示される</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
   <si>
     <t>河本</t>
@@ -287,6 +298,9 @@
   <si>
     <t>1.「名前（姓）」の入力フォームへ「ひらがな、漢字」、「10文字以内」で入力する
 2.確認ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>他の項目でエラーがなければ、更新確認画面へ遷移する</t>
   </si>
   <si>
     <t>名前（名）</t>
@@ -1319,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC18742-0DBE-44C1-B687-21B20CB2A8D0}">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1418,11 +1432,15 @@
       <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="8">
+        <v>45117</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="20"/>
     </row>
@@ -1444,13 +1462,17 @@
         <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="8">
+        <v>45117</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="20"/>
     </row>
@@ -1463,22 +1485,26 @@
         <v>3</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="8">
+        <v>45117</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="20"/>
     </row>
@@ -1491,22 +1517,26 @@
         <v>4</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="8">
+        <v>45117</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="20"/>
     </row>
@@ -1519,22 +1549,26 @@
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="8">
+        <v>45117</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="20"/>
     </row>
@@ -1547,10 +1581,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>28</v>
@@ -1558,11 +1592,15 @@
       <c r="F10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="8">
+        <v>45117</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="20"/>
     </row>
@@ -1575,7 +1613,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>30</v>
@@ -1586,11 +1624,15 @@
       <c r="F11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="8">
+        <v>45117</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="20"/>
     </row>
@@ -1614,11 +1656,15 @@
       <c r="F12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="8">
+        <v>45117</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="20"/>
     </row>
@@ -1642,11 +1688,15 @@
       <c r="F13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="8">
+        <v>45117</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="20"/>
     </row>
@@ -1670,25 +1720,41 @@
       <c r="F14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="8">
+        <v>45117</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:13" ht="73.5">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
       <c r="B15" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -3273,31 +3339,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J5" s="8">
         <v>45028</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="20"/>
@@ -3315,25 +3381,25 @@
         <v>37</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J6" s="8">
         <v>45028</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="20"/>
@@ -3351,31 +3417,31 @@
         <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J7" s="8">
         <v>45028</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3391,25 +3457,25 @@
         <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J8" s="8">
         <v>45037</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="20"/>
@@ -3423,31 +3489,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J9" s="8">
         <v>45028</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="20"/>
@@ -5278,37 +5344,37 @@
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J5" s="8">
         <v>45028</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="36.75">
@@ -5320,31 +5386,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J6" s="8">
         <v>45028</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="20"/>
@@ -5362,25 +5428,25 @@
         <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J7" s="8">
         <v>45028</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="20"/>
@@ -5398,25 +5464,25 @@
         <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J8" s="8">
         <v>45028</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="20"/>
@@ -7248,31 +7314,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J5" s="8">
         <v>45028</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="20"/>
@@ -7290,25 +7356,25 @@
         <v>37</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J6" s="8">
         <v>45028</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="20"/>
@@ -7326,25 +7392,25 @@
         <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J7" s="8">
         <v>45028</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="20"/>
@@ -7358,7 +7424,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>34</v>
@@ -7370,19 +7436,19 @@
         <v>36</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J8" s="8">
         <v>45028</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="20"/>
@@ -7406,19 +7472,19 @@
         <v>39</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J9" s="8">
         <v>45028</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="20"/>
@@ -7439,22 +7505,22 @@
         <v>41</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J10" s="8">
         <v>45028</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="20"/>
@@ -9250,31 +9316,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J5" s="8">
         <v>45028</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="20"/>
@@ -9289,28 +9355,28 @@
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J6" s="8">
         <v>45028</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="20"/>
@@ -9325,37 +9391,37 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J7" s="8">
         <v>45037</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -9368,28 +9434,28 @@
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J8" s="8">
         <v>45028</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="20"/>
@@ -9404,28 +9470,28 @@
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J9" s="8">
         <v>45028</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="20"/>
@@ -9439,31 +9505,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J10" s="8">
         <v>45028</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="20"/>
@@ -9478,28 +9544,28 @@
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J11" s="8">
         <v>45028</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="20"/>
@@ -9514,37 +9580,37 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J12" s="8">
         <v>45037</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -9557,28 +9623,28 @@
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J13" s="8">
         <v>45028</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="20"/>
@@ -9593,28 +9659,28 @@
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J14" s="8">
         <v>45028</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="20"/>
@@ -9627,31 +9693,31 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J15" s="8">
         <v>45028</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="20"/>
@@ -9666,28 +9732,28 @@
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J16" s="8">
         <v>45028</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="20"/>
@@ -9702,37 +9768,37 @@
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J17" s="8">
         <v>45037</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -9745,28 +9811,28 @@
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J18" s="8">
         <v>45028</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="20"/>
@@ -9781,37 +9847,37 @@
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J19" s="8">
         <v>45028</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N19" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="36.75">
@@ -9823,31 +9889,31 @@
         <v>16</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J20" s="8">
         <v>45028</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="20"/>
@@ -9862,28 +9928,28 @@
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J21" s="8">
         <v>45028</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="20"/>
@@ -9898,37 +9964,37 @@
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J22" s="8">
         <v>45037</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -9941,28 +10007,28 @@
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J23" s="8">
         <v>45028</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="20"/>
@@ -9977,37 +10043,37 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J24" s="8">
         <v>45028</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="36.75">
@@ -10019,31 +10085,31 @@
         <v>21</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J25" s="8">
         <v>45028</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="20"/>
@@ -10058,37 +10124,37 @@
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J26" s="8">
         <v>45028</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="N26" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -10101,28 +10167,28 @@
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J27" s="8">
         <v>45028</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="20"/>
@@ -10137,37 +10203,37 @@
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J28" s="8">
         <v>45028</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="N28" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="36.75">
@@ -10179,31 +10245,31 @@
         <v>25</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J29" s="8">
         <v>45028</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="20"/>
@@ -10218,28 +10284,28 @@
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J30" s="8">
         <v>45028</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="20"/>
@@ -10254,7 +10320,7 @@
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>28</v>
@@ -10263,19 +10329,19 @@
         <v>29</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J31" s="8">
         <v>45028</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="20"/>
@@ -10299,19 +10365,19 @@
         <v>32</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J32" s="8">
         <v>45028</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="20"/>
@@ -10326,28 +10392,28 @@
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J33" s="8">
         <v>45028</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7"/>
       <c r="M33" s="20"/>
@@ -10361,31 +10427,31 @@
         <v>30</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J34" s="8">
         <v>45028</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="20"/>
@@ -10400,28 +10466,28 @@
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J35" s="8">
         <v>45028</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="20"/>
@@ -10435,31 +10501,31 @@
         <v>32</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J36" s="8">
         <v>45028</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="20"/>
@@ -10474,28 +10540,28 @@
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J37" s="8">
         <v>45028</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="20"/>
@@ -10510,28 +10576,28 @@
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J38" s="8">
         <v>45028</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="20"/>
@@ -10545,37 +10611,37 @@
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J39" s="8">
         <v>45028</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N39" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="36.75">
@@ -10587,31 +10653,31 @@
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J40" s="8">
         <v>45028</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="20"/>
@@ -10626,28 +10692,28 @@
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J41" s="8">
         <v>45028</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L41" s="7"/>
       <c r="M41" s="20"/>
@@ -10662,37 +10728,37 @@
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J42" s="8">
         <v>45037</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N42" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="36.75">
@@ -10705,28 +10771,28 @@
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J43" s="8">
         <v>45028</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="20"/>
@@ -10740,31 +10806,31 @@
         <v>40</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J44" s="8">
         <v>45028</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="20"/>
@@ -10779,37 +10845,37 @@
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J45" s="8">
         <v>45028</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N45" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -10822,28 +10888,28 @@
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J46" s="8">
         <v>45028</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="20"/>
@@ -10858,28 +10924,28 @@
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J47" s="8">
         <v>45028</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L47" s="7"/>
       <c r="M47" s="20"/>
@@ -10893,31 +10959,31 @@
         <v>44</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J48" s="8">
         <v>45028</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L48" s="7"/>
       <c r="M48" s="20"/>
@@ -10932,37 +10998,37 @@
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="J49" s="8">
         <v>45028</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N49" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -10975,28 +11041,28 @@
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J50" s="8">
         <v>45028</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="20"/>
@@ -11011,28 +11077,28 @@
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J51" s="8">
         <v>45028</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L51" s="7"/>
       <c r="M51" s="20"/>
@@ -11046,31 +11112,31 @@
         <v>48</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J52" s="8">
         <v>45028</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="20"/>
@@ -11085,28 +11151,28 @@
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J53" s="8">
         <v>45028</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L53" s="7"/>
       <c r="M53" s="20"/>
@@ -11120,31 +11186,31 @@
         <v>50</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J54" s="8">
         <v>45028</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L54" s="7"/>
       <c r="M54" s="20"/>
@@ -11159,28 +11225,28 @@
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J55" s="8">
         <v>45028</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L55" s="7"/>
       <c r="M55" s="20"/>
@@ -11198,25 +11264,25 @@
         <v>40</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J56" s="8">
         <v>45028</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="20"/>
@@ -11234,25 +11300,25 @@
         <v>34</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J57" s="8">
         <v>45028</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L57" s="7"/>
       <c r="M57" s="20"/>
@@ -11270,25 +11336,25 @@
         <v>37</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J58" s="8">
         <v>45028</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L58" s="7"/>
       <c r="M58" s="20"/>
@@ -11306,25 +11372,25 @@
         <v>40</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J59" s="8">
         <v>45028</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L59" s="7"/>
       <c r="M59" s="20"/>
@@ -12235,9 +12301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2B3CF5-0787-4B6D-BB47-C6CF6D41933A}">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -12326,28 +12390,28 @@
         <v>13</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J5" s="8">
         <v>45098</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="20"/>
@@ -12361,31 +12425,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J6" s="8">
         <v>45098</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="20"/>
@@ -12403,25 +12467,25 @@
         <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J7" s="8">
         <v>45098</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="20"/>
@@ -12439,25 +12503,25 @@
         <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J8" s="8">
         <v>45098</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="20"/>
@@ -14212,7 +14276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47A473B-AF42-49A1-B26A-9682AD7C7703}">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A15"/>
     </sheetView>
   </sheetViews>
@@ -14303,28 +14367,28 @@
         <v>13</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J5" s="8">
         <v>45093</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="20"/>
@@ -14338,31 +14402,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J6" s="8">
         <v>45093</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="20"/>
@@ -14380,25 +14444,25 @@
         <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J7" s="8">
         <v>45093</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="20"/>
@@ -14416,25 +14480,25 @@
         <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J8" s="8">
         <v>45093</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="20"/>
@@ -16268,28 +16332,28 @@
         <v>13</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J5" s="8">
         <v>45093</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="20"/>
@@ -16303,31 +16367,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J6" s="8">
         <v>45093</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="20"/>
@@ -16345,25 +16409,25 @@
         <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J7" s="8">
         <v>45093</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="20"/>
@@ -16381,25 +16445,25 @@
         <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J8" s="8">
         <v>45093</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="20"/>
@@ -16413,7 +16477,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>34</v>
@@ -16425,19 +16489,19 @@
         <v>36</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J9" s="8">
         <v>45093</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="20"/>
@@ -16461,19 +16525,19 @@
         <v>39</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J10" s="8">
         <v>45093</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="20"/>
@@ -16494,22 +16558,22 @@
         <v>41</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J11" s="8">
         <v>45093</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="20"/>
@@ -18198,7 +18262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10FE740-09D2-4099-B159-10FF78A4DE06}">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -18287,31 +18351,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J5" s="8">
         <v>45093</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="20"/>
@@ -18326,28 +18390,28 @@
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J6" s="8">
         <v>45093</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="20"/>
@@ -18362,28 +18426,28 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J7" s="8">
         <v>45093</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="20"/>
@@ -18398,28 +18462,28 @@
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J8" s="8">
         <v>45093</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="20"/>
@@ -18434,28 +18498,28 @@
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J9" s="8">
         <v>45093</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="20"/>
@@ -18469,31 +18533,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J10" s="8">
         <v>45093</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="20"/>
@@ -18508,28 +18572,28 @@
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J11" s="8">
         <v>45093</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="20"/>
@@ -18544,28 +18608,28 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J12" s="8">
         <v>45093</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="20"/>
@@ -18580,28 +18644,28 @@
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J13" s="8">
         <v>45093</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="20"/>
@@ -18616,28 +18680,28 @@
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J14" s="8">
         <v>45093</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="20"/>
@@ -18650,31 +18714,31 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J15" s="8">
         <v>45093</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="20"/>
@@ -18689,28 +18753,28 @@
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J16" s="8">
         <v>45093</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="20"/>
@@ -18725,28 +18789,28 @@
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J17" s="8">
         <v>45093</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="20"/>
@@ -18761,28 +18825,28 @@
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J18" s="8">
         <v>45093</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="20"/>
@@ -18797,28 +18861,28 @@
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J19" s="8">
         <v>45093</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="20"/>
@@ -18832,31 +18896,31 @@
         <v>16</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J20" s="8">
         <v>45093</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="20"/>
@@ -18871,28 +18935,28 @@
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J21" s="8">
         <v>45093</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="20"/>
@@ -18907,28 +18971,28 @@
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J22" s="8">
         <v>45093</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="20"/>
@@ -18943,28 +19007,28 @@
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J23" s="8">
         <v>45093</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="20"/>
@@ -18979,28 +19043,28 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J24" s="8">
         <v>45093</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="20"/>
@@ -19014,31 +19078,31 @@
         <v>21</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J25" s="8">
         <v>45093</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="20"/>
@@ -19053,28 +19117,28 @@
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J26" s="8">
         <v>45093</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="20"/>
@@ -19089,28 +19153,28 @@
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J27" s="8">
         <v>45093</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="20"/>
@@ -19125,28 +19189,28 @@
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J28" s="8">
         <v>45093</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="20"/>
@@ -19160,31 +19224,31 @@
         <v>25</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J29" s="8">
         <v>45093</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="20"/>
@@ -19199,28 +19263,28 @@
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J30" s="8">
         <v>45093</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="20"/>
@@ -19235,7 +19299,7 @@
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>28</v>
@@ -19244,19 +19308,19 @@
         <v>29</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J31" s="8">
         <v>45093</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="20"/>
@@ -19280,19 +19344,19 @@
         <v>32</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J32" s="8">
         <v>45093</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="20"/>
@@ -19307,28 +19371,28 @@
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J33" s="8">
         <v>45093</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7"/>
       <c r="M33" s="20"/>
@@ -19342,31 +19406,31 @@
         <v>30</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J34" s="8">
         <v>45093</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="20"/>
@@ -19380,31 +19444,31 @@
         <v>31</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J35" s="8">
         <v>45093</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="20"/>
@@ -19419,28 +19483,28 @@
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J36" s="8">
         <v>45093</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="20"/>
@@ -19455,28 +19519,28 @@
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J37" s="8">
         <v>45093</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="20"/>
@@ -19490,28 +19554,28 @@
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J38" s="8">
         <v>45093</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L38" s="19"/>
       <c r="M38" s="20"/>
@@ -19525,31 +19589,31 @@
         <v>35</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J39" s="8">
         <v>45093</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="20"/>
@@ -19564,28 +19628,28 @@
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J40" s="8">
         <v>45093</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="20"/>
@@ -19600,28 +19664,28 @@
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J41" s="8">
         <v>45093</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L41" s="7"/>
       <c r="M41" s="20"/>
@@ -19636,28 +19700,28 @@
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J42" s="8">
         <v>45093</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="20"/>
@@ -19671,31 +19735,31 @@
         <v>39</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J43" s="8">
         <v>45093</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="20"/>
@@ -19710,28 +19774,28 @@
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J44" s="8">
         <v>45093</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="20"/>
@@ -19746,28 +19810,28 @@
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J45" s="8">
         <v>45093</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L45" s="7"/>
       <c r="M45" s="20"/>
@@ -19782,28 +19846,28 @@
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J46" s="8">
         <v>45093</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="20"/>
@@ -19817,31 +19881,31 @@
         <v>43</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J47" s="8">
         <v>45093</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L47" s="7"/>
       <c r="M47" s="20"/>
@@ -19856,28 +19920,28 @@
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J48" s="8">
         <v>45093</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L48" s="7"/>
       <c r="M48" s="20"/>
@@ -19892,28 +19956,28 @@
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J49" s="8">
         <v>45093</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L49" s="7"/>
       <c r="M49" s="20"/>
@@ -19928,28 +19992,28 @@
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J50" s="8">
         <v>45093</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="20"/>
@@ -19963,31 +20027,31 @@
         <v>47</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J51" s="8">
         <v>45093</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L51" s="7"/>
       <c r="M51" s="20"/>
@@ -20001,31 +20065,31 @@
         <v>48</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J52" s="8">
         <v>45093</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="20"/>
@@ -20040,28 +20104,28 @@
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J53" s="8">
         <v>45093</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L53" s="7"/>
       <c r="M53" s="20"/>
@@ -20079,25 +20143,25 @@
         <v>40</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J54" s="8">
         <v>45093</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L54" s="7"/>
       <c r="M54" s="20"/>
@@ -20115,25 +20179,25 @@
         <v>34</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J55" s="8">
         <v>45093</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L55" s="7"/>
       <c r="M55" s="20"/>
@@ -20151,25 +20215,25 @@
         <v>37</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J56" s="8">
         <v>45093</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="20"/>
@@ -20187,25 +20251,25 @@
         <v>40</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J57" s="8">
         <v>45093</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L57" s="7"/>
       <c r="M57" s="20"/>
@@ -21119,7 +21183,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A57"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -21210,28 +21274,28 @@
         <v>13</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J5" s="8">
         <v>45093</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="20"/>
@@ -21245,31 +21309,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J6" s="8">
         <v>45093</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="20"/>
@@ -21287,25 +21351,25 @@
         <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J7" s="8">
         <v>45093</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="20"/>
@@ -21321,25 +21385,25 @@
         <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J8" s="8">
         <v>45093</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="20"/>
@@ -23083,9 +23147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D99797-CE74-47AC-9ADA-91699DB165B4}">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -23174,28 +23236,28 @@
         <v>13</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J5" s="8">
         <v>45093</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="20"/>
@@ -23209,31 +23271,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J6" s="8">
         <v>45093</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="20"/>
@@ -23251,25 +23313,25 @@
         <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J7" s="8">
         <v>45093</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="20"/>
@@ -23287,25 +23349,25 @@
         <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J8" s="8">
         <v>45093</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="20"/>
@@ -23319,31 +23381,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J9" s="8">
         <v>45093</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="20"/>
@@ -23361,25 +23423,25 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J10" s="8">
         <v>45093</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="20"/>
@@ -23397,25 +23459,25 @@
         <v>40</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J11" s="8">
         <v>45093</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="20"/>
@@ -25195,28 +25257,28 @@
         <v>13</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J5" s="8">
         <v>45093</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="20"/>
@@ -25230,31 +25292,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J6" s="8">
         <v>45093</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="20"/>
@@ -25272,25 +25334,25 @@
         <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J7" s="8">
         <v>45093</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="20"/>
@@ -25308,25 +25370,25 @@
         <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J8" s="8">
         <v>45093</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="20"/>
@@ -27069,9 +27131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4A1231-2B5D-4A6B-A443-53E1D4266F52}">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -27160,28 +27220,28 @@
         <v>13</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J5" s="8">
         <v>45058</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="20"/>
@@ -27195,31 +27255,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J6" s="8">
         <v>45058</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="20"/>
@@ -27237,25 +27297,25 @@
         <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J7" s="8">
         <v>45058</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="20"/>
@@ -27273,25 +27333,25 @@
         <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J8" s="8">
         <v>45058</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="20"/>
@@ -27305,31 +27365,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J9" s="8">
         <v>45058</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="20"/>
@@ -27347,25 +27407,25 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J10" s="8">
         <v>45058</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="20"/>
@@ -27383,25 +27443,25 @@
         <v>40</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J11" s="8">
         <v>45058</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="20"/>

--- a/test_case/unit-test-case_v4.xlsx
+++ b/test_case/unit-test-case_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26707"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B1014D-C5BF-4A1D-BE02-30E82C1E4BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75109525-ECED-41F0-B346-145DA825F021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="17" r:id="rId1"/>
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC18742-0DBE-44C1-B687-21B20CB2A8D0}">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12523,8 +12523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2B3CF5-0787-4B6D-BB47-C6CF6D41933A}">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
